--- a/biology/Médecine/Carlos_Chiacchio/Carlos_Chiacchio.xlsx
+++ b/biology/Médecine/Carlos_Chiacchio/Carlos_Chiacchio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlos Chiacchio est un écrivain, journaliste et médecin brésilien, né le 4 juin 1884 à Januária et mort le 17 juillet 1947 à Salvador.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Jacôme et Patricia Chiacchio, il vit à Salvador, où il obtient son diplôme de médecine en 1910[1]. Il est médecin à Viação Férrea Federal Leste Brasileiro, à Lloyd Brasileiro, à la Commission fédérale d'études pour la construction du chemin de fer Machado Portela-Carinhanha, et est professeur à l'université fédérale de Bahia[2]. Il collabore avec le journal A Tarde pendant 18 ans et au journal O Imparcial[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Jacôme et Patricia Chiacchio, il vit à Salvador, où il obtient son diplôme de médecine en 1910. Il est médecin à Viação Férrea Federal Leste Brasileiro, à Lloyd Brasileiro, à la Commission fédérale d'études pour la construction du chemin de fer Machado Portela-Carinhanha, et est professeur à l'université fédérale de Bahia. Il collabore avec le journal A Tarde pendant 18 ans et au journal O Imparcial.
 </t>
         </is>
       </c>
